--- a/classes_description.xlsx
+++ b/classes_description.xlsx
@@ -640,8 +640,8 @@
   </sheetPr>
   <dimension ref="A1:V1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A97" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C136" activeCellId="0" sqref="C136"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A70" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B103" activeCellId="0" sqref="B103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -683,7 +683,7 @@
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>3</v>
@@ -711,7 +711,7 @@
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>5</v>
@@ -739,7 +739,7 @@
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>6</v>
@@ -767,7 +767,7 @@
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>7</v>
@@ -795,7 +795,7 @@
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>8</v>
@@ -823,7 +823,7 @@
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="4" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>9</v>
@@ -851,7 +851,7 @@
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="4" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
@@ -879,7 +879,7 @@
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="4" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>11</v>
@@ -907,7 +907,7 @@
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="4" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>12</v>
@@ -935,7 +935,7 @@
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="4" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>13</v>
@@ -963,7 +963,7 @@
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="4" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>14</v>
@@ -991,7 +991,7 @@
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="4" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>15</v>
@@ -1019,7 +1019,7 @@
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="4" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>16</v>
@@ -1047,7 +1047,7 @@
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="4" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>17</v>
@@ -1075,7 +1075,7 @@
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="4" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>18</v>
@@ -1103,7 +1103,7 @@
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="4" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>19</v>
@@ -1131,7 +1131,7 @@
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="4" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>20</v>
@@ -1159,7 +1159,7 @@
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="4" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>21</v>
@@ -1187,7 +1187,7 @@
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="4" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>22</v>
@@ -1215,7 +1215,7 @@
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="4" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21" s="5" t="s">
         <v>23</v>
@@ -1243,7 +1243,7 @@
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="4" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>24</v>
@@ -1271,7 +1271,7 @@
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="4" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23" s="5" t="s">
         <v>25</v>
@@ -1299,7 +1299,7 @@
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="4" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>26</v>
@@ -1327,7 +1327,7 @@
     </row>
     <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="4" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>27</v>
@@ -1355,7 +1355,7 @@
     </row>
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="4" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26" s="5" t="s">
         <v>28</v>
@@ -1381,7 +1381,7 @@
     </row>
     <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="4" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B27" s="5" t="s">
         <v>29</v>
@@ -1409,7 +1409,7 @@
     </row>
     <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="4" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>30</v>
@@ -1437,7 +1437,7 @@
     </row>
     <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="4" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>31</v>
@@ -1465,7 +1465,7 @@
     </row>
     <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="4" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B30" s="5" t="s">
         <v>32</v>
@@ -1493,7 +1493,7 @@
     </row>
     <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="4" t="n">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B31" s="5" t="s">
         <v>33</v>
@@ -1521,7 +1521,7 @@
     </row>
     <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="4" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B32" s="7" t="s">
         <v>34</v>
@@ -1549,7 +1549,7 @@
     </row>
     <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="4" t="n">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B33" s="7" t="s">
         <v>36</v>
@@ -1577,7 +1577,7 @@
     </row>
     <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="4" t="n">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B34" s="7" t="s">
         <v>37</v>
@@ -1605,7 +1605,7 @@
     </row>
     <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="4" t="n">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B35" s="7" t="s">
         <v>38</v>
@@ -1633,7 +1633,7 @@
     </row>
     <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="4" t="n">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B36" s="7" t="s">
         <v>39</v>
@@ -1661,7 +1661,7 @@
     </row>
     <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="4" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B37" s="7" t="s">
         <v>40</v>
@@ -1689,7 +1689,7 @@
     </row>
     <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="4" t="n">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B38" s="9" t="s">
         <v>41</v>
@@ -1717,7 +1717,7 @@
     </row>
     <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="4" t="n">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B39" s="9" t="s">
         <v>43</v>
@@ -1745,7 +1745,7 @@
     </row>
     <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="4" t="n">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B40" s="9" t="s">
         <v>44</v>
@@ -1773,7 +1773,7 @@
     </row>
     <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="4" t="n">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="B41" s="9" t="s">
         <v>45</v>
@@ -1801,7 +1801,7 @@
     </row>
     <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="4" t="n">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="B42" s="9" t="s">
         <v>46</v>
@@ -1829,7 +1829,7 @@
     </row>
     <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="4" t="n">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="B43" s="9" t="s">
         <v>47</v>
@@ -1857,7 +1857,7 @@
     </row>
     <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="4" t="n">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="B44" s="9" t="s">
         <v>48</v>
@@ -1885,7 +1885,7 @@
     </row>
     <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="4" t="n">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="B45" s="9" t="s">
         <v>49</v>
@@ -1913,7 +1913,7 @@
     </row>
     <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="4" t="n">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="B46" s="9" t="s">
         <v>50</v>
@@ -1941,7 +1941,7 @@
     </row>
     <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="4" t="n">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="B47" s="9" t="s">
         <v>51</v>
@@ -1969,7 +1969,7 @@
     </row>
     <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="4" t="n">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="B48" s="9" t="s">
         <v>52</v>
@@ -1997,7 +1997,7 @@
     </row>
     <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="4" t="n">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="B49" s="9" t="s">
         <v>53</v>
@@ -2025,7 +2025,7 @@
     </row>
     <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="4" t="n">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="B50" s="9" t="s">
         <v>54</v>
@@ -2053,7 +2053,7 @@
     </row>
     <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="4" t="n">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="B51" s="9" t="s">
         <v>55</v>
@@ -2081,7 +2081,7 @@
     </row>
     <row r="52" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="4" t="n">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="B52" s="9" t="s">
         <v>56</v>
@@ -2109,7 +2109,7 @@
     </row>
     <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="4" t="n">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="B53" s="9" t="s">
         <v>57</v>
@@ -2137,7 +2137,7 @@
     </row>
     <row r="54" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="4" t="n">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="B54" s="9" t="s">
         <v>58</v>
@@ -2165,7 +2165,7 @@
     </row>
     <row r="55" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="4" t="n">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="B55" s="9" t="s">
         <v>59</v>
@@ -2193,7 +2193,7 @@
     </row>
     <row r="56" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="4" t="n">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="B56" s="9" t="s">
         <v>60</v>
@@ -2221,7 +2221,7 @@
     </row>
     <row r="57" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="4" t="n">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="B57" s="9" t="s">
         <v>61</v>
@@ -2249,7 +2249,7 @@
     </row>
     <row r="58" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="4" t="n">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="B58" s="9" t="s">
         <v>62</v>
@@ -2277,7 +2277,7 @@
     </row>
     <row r="59" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="4" t="n">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="B59" s="9" t="s">
         <v>63</v>
@@ -2305,7 +2305,7 @@
     </row>
     <row r="60" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="4" t="n">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="B60" s="9" t="s">
         <v>64</v>
@@ -2333,7 +2333,7 @@
     </row>
     <row r="61" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="4" t="n">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="B61" s="9" t="s">
         <v>65</v>
@@ -2361,7 +2361,7 @@
     </row>
     <row r="62" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A62" s="4" t="n">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="B62" s="9" t="s">
         <v>66</v>
@@ -2389,7 +2389,7 @@
     </row>
     <row r="63" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A63" s="4" t="n">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="B63" s="9" t="s">
         <v>67</v>
@@ -2417,7 +2417,7 @@
     </row>
     <row r="64" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A64" s="4" t="n">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="B64" s="9" t="s">
         <v>68</v>
@@ -2445,7 +2445,7 @@
     </row>
     <row r="65" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A65" s="4" t="n">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="B65" s="9" t="s">
         <v>69</v>
@@ -2473,7 +2473,7 @@
     </row>
     <row r="66" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A66" s="4" t="n">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="B66" s="9" t="s">
         <v>70</v>
@@ -2501,7 +2501,7 @@
     </row>
     <row r="67" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A67" s="4" t="n">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="B67" s="9" t="s">
         <v>71</v>
@@ -2529,7 +2529,7 @@
     </row>
     <row r="68" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A68" s="4" t="n">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="B68" s="9" t="s">
         <v>72</v>
@@ -2557,7 +2557,7 @@
     </row>
     <row r="69" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A69" s="4" t="n">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="B69" s="9" t="s">
         <v>73</v>
@@ -2585,7 +2585,7 @@
     </row>
     <row r="70" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A70" s="4" t="n">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="B70" s="9" t="s">
         <v>74</v>
@@ -2613,7 +2613,7 @@
     </row>
     <row r="71" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A71" s="4" t="n">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="B71" s="10" t="s">
         <v>75</v>
@@ -2641,7 +2641,7 @@
     </row>
     <row r="72" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A72" s="4" t="n">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="B72" s="10" t="s">
         <v>77</v>
@@ -2669,7 +2669,7 @@
     </row>
     <row r="73" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A73" s="4" t="n">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="B73" s="10" t="s">
         <v>78</v>
@@ -2697,7 +2697,7 @@
     </row>
     <row r="74" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A74" s="4" t="n">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="B74" s="10" t="s">
         <v>79</v>
@@ -2725,7 +2725,7 @@
     </row>
     <row r="75" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A75" s="4" t="n">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="B75" s="10" t="s">
         <v>80</v>
@@ -2753,7 +2753,7 @@
     </row>
     <row r="76" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A76" s="4" t="n">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="B76" s="10" t="s">
         <v>81</v>
@@ -2781,7 +2781,7 @@
     </row>
     <row r="77" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A77" s="4" t="n">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="B77" s="10" t="s">
         <v>82</v>
@@ -2809,7 +2809,7 @@
     </row>
     <row r="78" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A78" s="4" t="n">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="B78" s="10" t="s">
         <v>83</v>
@@ -2837,7 +2837,7 @@
     </row>
     <row r="79" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A79" s="4" t="n">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="B79" s="10" t="s">
         <v>84</v>
@@ -2865,7 +2865,7 @@
     </row>
     <row r="80" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A80" s="4" t="n">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="B80" s="10" t="s">
         <v>85</v>
@@ -2893,7 +2893,7 @@
     </row>
     <row r="81" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A81" s="4" t="n">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="B81" s="10" t="s">
         <v>86</v>
@@ -2921,7 +2921,7 @@
     </row>
     <row r="82" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A82" s="4" t="n">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="B82" s="10" t="s">
         <v>87</v>
@@ -2949,7 +2949,7 @@
     </row>
     <row r="83" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A83" s="4" t="n">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="B83" s="10" t="s">
         <v>88</v>
@@ -2977,7 +2977,7 @@
     </row>
     <row r="84" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A84" s="4" t="n">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="B84" s="10" t="s">
         <v>88</v>
@@ -3005,7 +3005,7 @@
     </row>
     <row r="85" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A85" s="4" t="n">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="B85" s="10" t="s">
         <v>89</v>
@@ -3033,7 +3033,7 @@
     </row>
     <row r="86" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A86" s="4" t="n">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="B86" s="10" t="s">
         <v>90</v>
@@ -3061,7 +3061,7 @@
     </row>
     <row r="87" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A87" s="4" t="n">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="B87" s="11" t="s">
         <v>91</v>
@@ -3089,7 +3089,7 @@
     </row>
     <row r="88" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A88" s="4" t="n">
-        <v>101</v>
+        <v>86</v>
       </c>
       <c r="B88" s="11" t="s">
         <v>93</v>
@@ -3117,7 +3117,7 @@
     </row>
     <row r="89" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A89" s="4" t="n">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="B89" s="11" t="s">
         <v>94</v>
@@ -3145,7 +3145,7 @@
     </row>
     <row r="90" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A90" s="4" t="n">
-        <v>105</v>
+        <v>88</v>
       </c>
       <c r="B90" s="11" t="s">
         <v>95</v>
@@ -3173,7 +3173,7 @@
     </row>
     <row r="91" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A91" s="4" t="n">
-        <v>106</v>
+        <v>89</v>
       </c>
       <c r="B91" s="11" t="s">
         <v>96</v>
@@ -3201,7 +3201,7 @@
     </row>
     <row r="92" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A92" s="4" t="n">
-        <v>107</v>
+        <v>90</v>
       </c>
       <c r="B92" s="11" t="s">
         <v>97</v>
@@ -3229,7 +3229,7 @@
     </row>
     <row r="93" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A93" s="4" t="n">
-        <v>108</v>
+        <v>91</v>
       </c>
       <c r="B93" s="11" t="s">
         <v>98</v>
@@ -3257,7 +3257,7 @@
     </row>
     <row r="94" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A94" s="4" t="n">
-        <v>109</v>
+        <v>92</v>
       </c>
       <c r="B94" s="11" t="s">
         <v>19</v>
@@ -3285,7 +3285,7 @@
     </row>
     <row r="95" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A95" s="4" t="n">
-        <v>110</v>
+        <v>93</v>
       </c>
       <c r="B95" s="11" t="s">
         <v>99</v>
@@ -3313,7 +3313,7 @@
     </row>
     <row r="96" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A96" s="4" t="n">
-        <v>111</v>
+        <v>94</v>
       </c>
       <c r="B96" s="11" t="s">
         <v>100</v>
@@ -3341,7 +3341,7 @@
     </row>
     <row r="97" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A97" s="4" t="n">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="B97" s="11" t="s">
         <v>101</v>
@@ -3369,7 +3369,7 @@
     </row>
     <row r="98" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A98" s="4" t="n">
-        <v>114</v>
+        <v>96</v>
       </c>
       <c r="B98" s="11" t="s">
         <v>102</v>
@@ -3397,7 +3397,7 @@
     </row>
     <row r="99" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A99" s="4" t="n">
-        <v>115</v>
+        <v>97</v>
       </c>
       <c r="B99" s="11" t="s">
         <v>103</v>
@@ -3425,7 +3425,7 @@
     </row>
     <row r="100" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A100" s="4" t="n">
-        <v>116</v>
+        <v>98</v>
       </c>
       <c r="B100" s="11" t="s">
         <v>104</v>
@@ -3453,7 +3453,7 @@
     </row>
     <row r="101" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A101" s="4" t="n">
-        <v>162</v>
+        <v>99</v>
       </c>
       <c r="B101" s="12" t="s">
         <v>105</v>
@@ -3481,7 +3481,7 @@
     </row>
     <row r="102" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A102" s="4" t="n">
-        <v>163</v>
+        <v>100</v>
       </c>
       <c r="B102" s="12" t="s">
         <v>107</v>
@@ -3509,7 +3509,7 @@
     </row>
     <row r="103" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A103" s="4" t="n">
-        <v>164</v>
+        <v>102</v>
       </c>
       <c r="B103" s="12" t="s">
         <v>108</v>

--- a/classes_description.xlsx
+++ b/classes_description.xlsx
@@ -640,8 +640,8 @@
   </sheetPr>
   <dimension ref="A1:V1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A70" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B103" activeCellId="0" sqref="B103"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A81" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B109" activeCellId="0" sqref="B109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3509,7 +3509,7 @@
     </row>
     <row r="103" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A103" s="4" t="n">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B103" s="12" t="s">
         <v>108</v>
